--- a/biology/Botanique/Sphaeropleales/Sphaeropleales.xlsx
+++ b/biology/Botanique/Sphaeropleales/Sphaeropleales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sphaeropleales sont un ordre d'algues vertes de la classe des Chlorophyceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles et non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (25 décembre 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (25 décembre 2021) :
 Bracteacoccaceae Tsarenko
 Bracteamorphaceae Fuciková, P.O.Lewis &amp; L.A.Lewis
 Characiaceae (Nägeli) Wittrock
@@ -532,7 +546,7 @@
 Schroederiaceae Fuciková, P.O.Lewis &amp; L.A.Lewis
 Selenastraceae Blackman &amp; Tansley
 Tumidellaceae Fuciková, P.O.Lewis &amp; L.A.Lewis
-Selon ITIS      (25 décembre 2021)[3] :
+Selon ITIS      (25 décembre 2021) :
 Bracteacoccaceae
 Bracteamorphaceae
 Characiaceae
@@ -552,7 +566,7 @@
 Selenastraceae
 Sphaeropleaceae
 Tumidellaceae
-Selon NCBI  (25 décembre 2021)[4] :
+Selon NCBI  (25 décembre 2021) :
 Bracteacoccaceae Tsarenko, 2005
 Bracteamorphaceae Fucikova, P.O.Lewis &amp; L.A.Lewis, 2014
 Chromochloridaceae Fucikova, P.O.Lewis &amp; L.A.Lewis, 2014
@@ -572,7 +586,7 @@
 Sphaeropleaceae Kuetzing, 1849
 Tumidellaceae Fucikova, P.O.Lewis &amp; L.A.Lewis, 2014
 non-classé Sphaeropleales incertae sedis
-Selon World Register of Marine Species                               (25 décembre 2021)[1] :
+Selon World Register of Marine Species                               (25 décembre 2021) :
 Ankistrodesmaceae Korshikov, 1953
 Bracteacoccaceae
 Bracteamorphaceae Fuciková, P.O.Lewis &amp; L.A.Lewis, 2014
